--- a/data/trans_bre/IMC_inf_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IMC_inf_R2-Habitat-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con al menos sobrepeso</t>
+          <t>Población con sobrepeso u obesidad declarado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-21,26</t>
+          <t>-24,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>-14,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,7</t>
+          <t>-10,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-43,39%</t>
+          <t>-45,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>-10,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>-24,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-27,01%</t>
+          <t>-21,6%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 0,75</t>
+          <t>-49,75; 2,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 21,6</t>
+          <t>-35,28; 28,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 29,57</t>
+          <t>-43,76; 18,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 16,01</t>
+          <t>-46,46; 24,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,45; 6,74</t>
+          <t>-78,07; 6,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,86; 84,09</t>
+          <t>-59,18; 83,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-48,48; 112,02</t>
+          <t>-63,41; 47,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-74,01; 82,29</t>
+          <t>-69,49; 88,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,18</t>
+          <t>-11,75</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-7,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,93</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,25</t>
+          <t>-10,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-27,31%</t>
+          <t>-25,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>-15,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-24,82%</t>
+          <t>-14,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-30,86%</t>
+          <t>-26,95%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,7; -1,98</t>
+          <t>-22,17; -0,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 8,58</t>
+          <t>-20,76; 5,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,74; -0,32</t>
+          <t>-19,81; 5,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,97; -0,48</t>
+          <t>-23,61; 2,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,03; -5,47</t>
+          <t>-43,19; -0,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 24,49</t>
+          <t>-37,29; 11,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,01; -1,81</t>
+          <t>-35,92; 13,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,59; -0,48</t>
+          <t>-50,58; 8,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,15</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,62</t>
+          <t>-14,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,71</t>
+          <t>-16,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,32</t>
+          <t>-12,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,06%</t>
+          <t>-22,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,09%</t>
+          <t>-26,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-32,02%</t>
+          <t>-36,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-26,04%</t>
+          <t>-29,77%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,11; -2,68</t>
+          <t>-19,6; -2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,68; -2,77</t>
+          <t>-23,86; -6,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -5,31</t>
+          <t>-24,33; -8,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,86; -1,58</t>
+          <t>-21,35; -4,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,56; -6,23</t>
+          <t>-37,17; -5,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,64; -6,26</t>
+          <t>-40,1; -12,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,67; -15,36</t>
+          <t>-50,03; -20,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,05; -4,26</t>
+          <t>-47,28; -11,74</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,22</t>
+          <t>-11,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,07</t>
+          <t>-8,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-23,21%</t>
+          <t>-25,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,37%</t>
+          <t>-13,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,04%</t>
+          <t>-12,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,95%</t>
+          <t>-22,94%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -0,97</t>
+          <t>-22,58; -2,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 7,88</t>
+          <t>-15,74; 3,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 5,17</t>
+          <t>-14,62; 4,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 2,92</t>
+          <t>-21,15; 2,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,92; -2,85</t>
+          <t>-44,38; -5,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 24,31</t>
+          <t>-30,25; 7,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 17,83</t>
+          <t>-32,75; 14,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 9,72</t>
+          <t>-46,26; 6,53</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-9,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>-13,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,78%</t>
+          <t>-8,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-11,15%</t>
+          <t>-18,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-20,02%</t>
+          <t>-24,95%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 5,27</t>
+          <t>-14,33; 3,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 6,41</t>
+          <t>-13,14; 6,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 3,68</t>
+          <t>-16,88; 1,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 2,72</t>
+          <t>-18,3; -0,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 16,27</t>
+          <t>-32,05; 8,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 18,38</t>
+          <t>-25,11; 13,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 10,62</t>
+          <t>-33,63; 3,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 10,15</t>
+          <t>-44,29; -0,12</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>-10,18</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>-8,33</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,9%</t>
+          <t>-22,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,61%</t>
+          <t>-16,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-18,9%</t>
+          <t>-22,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-24,78%</t>
+          <t>-26,31%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -4,14</t>
+          <t>-14,69; -5,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -0,31</t>
+          <t>-13,04; -3,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -3,0</t>
+          <t>-14,47; -4,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -4,04</t>
+          <t>-15,73; -5,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,68; -10,55</t>
+          <t>-30,58; -12,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,43; -0,74</t>
+          <t>-24,52; -6,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,97; -7,83</t>
+          <t>-30,77; -10,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,57; -12,38</t>
+          <t>-37,36; -14,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IMC_inf_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IMC_inf_R2-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-24,08</t>
+          <t>-13,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,07</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,68</t>
+          <t>-7,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-45,68%</t>
+          <t>-29,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,34%</t>
+          <t>-14,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-24,76%</t>
+          <t>-15,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-21,6%</t>
+          <t>-19,63%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-49,75; 2,24</t>
+          <t>-23,5; -3,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 28,46</t>
+          <t>-19,36; 3,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 18,81</t>
+          <t>-18,67; 3,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,46; 24,18</t>
+          <t>-19,41; 5,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-78,07; 6,27</t>
+          <t>-45,79; -6,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,18; 83,47</t>
+          <t>-34,82; 10,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-63,41; 47,76</t>
+          <t>-34,51; 8,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-69,49; 88,83</t>
+          <t>-43,01; 18,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,75</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,74</t>
+          <t>-14,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>-16,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,61</t>
+          <t>-12,94</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-25,51%</t>
+          <t>-22,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>-26,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,14%</t>
+          <t>-36,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-26,95%</t>
+          <t>-31,52%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,17; -0,34</t>
+          <t>-19,05; -2,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 5,04</t>
+          <t>-23,74; -5,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 5,76</t>
+          <t>-24,03; -7,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 2,79</t>
+          <t>-22,26; -4,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,19; -0,99</t>
+          <t>-36,63; -5,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 11,13</t>
+          <t>-39,35; -11,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 13,18</t>
+          <t>-49,83; -20,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,58; 8,45</t>
+          <t>-49,36; -11,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,82</t>
+          <t>-11,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,74</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,58</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,08</t>
+          <t>-11,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,29%</t>
+          <t>-25,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-26,47%</t>
+          <t>-13,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-36,74%</t>
+          <t>-12,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-29,77%</t>
+          <t>-29,76%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,6; -2,35</t>
+          <t>-22,2; -1,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,86; -6,24</t>
+          <t>-15,66; 4,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,33; -8,39</t>
+          <t>-14,78; 4,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,35; -4,45</t>
+          <t>-27,35; 0,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,17; -5,34</t>
+          <t>-44,06; -3,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,1; -12,04</t>
+          <t>-29,4; 11,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,03; -20,56</t>
+          <t>-34,0; 13,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,28; -11,74</t>
+          <t>-61,99; 0,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,64</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,86%</t>
+          <t>-13,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,21%</t>
+          <t>-8,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,24%</t>
+          <t>-18,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,94%</t>
+          <t>-23,58%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,58; -2,01</t>
+          <t>-14,1; 3,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 3,24</t>
+          <t>-13,64; 5,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 4,78</t>
+          <t>-17,92; 0,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 2,17</t>
+          <t>-18,19; 1,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,38; -5,2</t>
+          <t>-31,85; 10,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 7,9</t>
+          <t>-25,37; 12,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,75; 14,55</t>
+          <t>-35,5; 0,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,26; 6,53</t>
+          <t>-43,72; 5,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,72</t>
+          <t>-10,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-8,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,21</t>
+          <t>-10,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-13,91%</t>
+          <t>-22,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,3%</t>
+          <t>-16,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-18,02%</t>
+          <t>-22,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-24,95%</t>
+          <t>-27,36%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 3,11</t>
+          <t>-14,42; -5,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 6,27</t>
+          <t>-13,5; -3,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 1,71</t>
+          <t>-14,65; -5,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,3; -0,04</t>
+          <t>-16,87; -5,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,05; 8,61</t>
+          <t>-30,69; -11,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 13,85</t>
+          <t>-25,27; -8,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 3,84</t>
+          <t>-31,02; -12,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-44,29; -0,12</t>
+          <t>-41,14; -15,25</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-10,18</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-8,33</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-9,85</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-10,34</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-22,41%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-16,5%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-22,02%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-26,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-14,69; -5,68</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-13,04; -3,07</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-14,47; -4,51</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-15,73; -5,48</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-30,58; -12,99</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-24,52; -6,5</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-30,77; -10,65</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-37,36; -14,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
